--- a/biology/Botanique/Coilodesme/Coilodesme.xlsx
+++ b/biology/Botanique/Coilodesme/Coilodesme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Coilodesme est un genre d'algues brunes de la famille des Chordariaceae (ordre des Ectocarpales) selon AlgaeBase                                           (31 oct. 2012)[1], Catalogue of Life                                  (31 oct. 2012)[2], NCBI  (31 oct. 2012)[3] et World Register of Marine Species                               (31 oct. 2012)[4] ou bien de la famille des Laminariaceae (ordre des Laminariales) selon ITIS      (31 oct. 2012)[5]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coilodesme est un genre d'algues brunes de la famille des Chordariaceae (ordre des Ectocarpales) selon AlgaeBase                                           (31 oct. 2012), Catalogue of Life                                  (31 oct. 2012), NCBI  (31 oct. 2012) et World Register of Marine Species                               (31 oct. 2012) ou bien de la famille des Laminariaceae (ordre des Laminariales) selon ITIS      (31 oct. 2012). 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (31 oct. 2012)[1], Catalogue of Life                                  (31 oct. 2012)[2], ITIS      (31 oct. 2012)[5] et World Register of Marine Species                               (31 oct. 2012)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (31 oct. 2012), Catalogue of Life                                  (31 oct. 2012), ITIS      (31 oct. 2012) et World Register of Marine Species                               (31 oct. 2012) :
 Coilodesme bulligera Strömfelt, 1886 (espèce type)
 Coilodesme californica (Ruprecht) Kjellman, 1889{
 Coilodesme corrugata Setchell &amp; N.L.Gardner, 1924
@@ -523,7 +537,7 @@
 Coilodesme plana Hollenberg &amp; I.A.Abbott, 1965
 Coilodesme polygnampta Setchell &amp; N.L.Gardner, 1924
 Coilodesme rigida Setchell &amp; N.L.Gardner, 1924
-Selon NCBI  (31 oct. 2012)[3] :
+Selon NCBI  (31 oct. 2012) :
 Coilodesme japonica</t>
         </is>
       </c>
